--- a/datos_fbref/RESUMEN_STATS_La_Liga.xlsx
+++ b/datos_fbref/RESUMEN_STATS_La_Liga.xlsx
@@ -602,64 +602,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="G3" t="n">
-        <v>2160</v>
+        <v>2250</v>
       </c>
       <c r="H3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P3" t="n">
         <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="R3" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="S3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
         <v>0.92</v>
       </c>
       <c r="U3" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="4">
@@ -870,64 +870,64 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
         <v>27.1</v>
       </c>
       <c r="D7" t="n">
-        <v>58.6</v>
+        <v>58.4</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="G7" t="n">
-        <v>2160</v>
+        <v>2250</v>
       </c>
       <c r="H7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7" t="n">
         <v>23</v>
       </c>
       <c r="K7" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L7" t="n">
         <v>30</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="R7" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="S7" t="n">
-        <v>2.21</v>
+        <v>2.16</v>
       </c>
       <c r="T7" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="U7" t="n">
-        <v>2.21</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="8">
